--- a/exceldesign/База комплектующих/Ленспецсталь.xlsx
+++ b/exceldesign/База комплектующих/Ленспецсталь.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Tekla Structures\2016i\Environments\common\exceldesign\База комплектующих\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="12735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="12735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Уголок равнопол." sheetId="1" r:id="rId1"/>
     <sheet name="Полоса" sheetId="2" r:id="rId2"/>
     <sheet name="Лист" sheetId="3" r:id="rId3"/>
-    <sheet name="Двутавр-вручную" sheetId="4" r:id="rId4"/>
-    <sheet name="Швеллер" sheetId="6" r:id="rId5"/>
-    <sheet name="Двутавр" sheetId="5" r:id="rId6"/>
+    <sheet name="Швеллер" sheetId="6" r:id="rId4"/>
+    <sheet name="Двутавр" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="720">
   <si>
     <t>Наименование</t>
   </si>
@@ -721,138 +720,9 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>дог.</t>
-  </si>
-  <si>
     <t>Описание</t>
   </si>
   <si>
-    <t>20Б1</t>
-  </si>
-  <si>
-    <t>20К1;K2</t>
-  </si>
-  <si>
-    <t>20Ш1;Ш2</t>
-  </si>
-  <si>
-    <t>24М</t>
-  </si>
-  <si>
-    <t>25Б1;Б2</t>
-  </si>
-  <si>
-    <t>25К1;K2</t>
-  </si>
-  <si>
-    <t>25Ш1</t>
-  </si>
-  <si>
-    <t>30Б1;Б2</t>
-  </si>
-  <si>
-    <t>30К1;K2</t>
-  </si>
-  <si>
-    <t>30Ш1;Ш2</t>
-  </si>
-  <si>
-    <t>35Ш1;Ш2</t>
-  </si>
-  <si>
-    <t>35Б1;Б2</t>
-  </si>
-  <si>
-    <t>40Б1</t>
-  </si>
-  <si>
-    <t>40Ш1</t>
-  </si>
-  <si>
-    <t>40К1</t>
-  </si>
-  <si>
-    <t>45Б1</t>
-  </si>
-  <si>
-    <t>45Ш1</t>
-  </si>
-  <si>
-    <t>50Б1;55Б1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;60 </t>
-  </si>
-  <si>
-    <t>36М;45М</t>
-  </si>
-  <si>
-    <t>20Ш1</t>
-  </si>
-  <si>
-    <t>30Ш1</t>
-  </si>
-  <si>
-    <t>35Ш1</t>
-  </si>
-  <si>
-    <t>20Ш2</t>
-  </si>
-  <si>
-    <t>20К1</t>
-  </si>
-  <si>
-    <t>25Б1</t>
-  </si>
-  <si>
-    <t>25К1</t>
-  </si>
-  <si>
-    <t>30Б1</t>
-  </si>
-  <si>
-    <t>30К1</t>
-  </si>
-  <si>
-    <t>35Б1</t>
-  </si>
-  <si>
-    <t>36М</t>
-  </si>
-  <si>
-    <t>50Б1</t>
-  </si>
-  <si>
-    <t>20К2</t>
-  </si>
-  <si>
-    <t>25Б2</t>
-  </si>
-  <si>
-    <t>25К2</t>
-  </si>
-  <si>
-    <t>30Б2</t>
-  </si>
-  <si>
-    <t>30К2</t>
-  </si>
-  <si>
-    <t>30Ш2</t>
-  </si>
-  <si>
-    <t>33Ш2</t>
-  </si>
-  <si>
-    <t>35Б2</t>
-  </si>
-  <si>
-    <t>45М</t>
-  </si>
-  <si>
-    <t>55Б1</t>
-  </si>
-  <si>
     <t>ЛЕНСПЕЦСТАЛЬ</t>
   </si>
   <si>
@@ -1666,132 +1536,6 @@
     <t>Швеллер 40У</t>
   </si>
   <si>
-    <t>Швеллер гнутый 50х40х3</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 60х32х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 80х32х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 80х40х3</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 80х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 100х50х3</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 100х50х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 100х50х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 100х60х3</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 120х50х3</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 120х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 120х80х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 140х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 140х60х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х40х3</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х40х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х60х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х80х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х80х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 160х100х6</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 180х50х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 180х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 180х60х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 180х70х6</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 180х80х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х50х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х50х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х60х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х80х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х80х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х80х6</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 200х100х6</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х60х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х80х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х80х6</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х100х4</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х100х5</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х100х6</t>
-  </si>
-  <si>
-    <t>Швеллер гнутый 250х125х6</t>
-  </si>
-  <si>
-    <t>Швеллер 09Г2С-12 №6,5У</t>
-  </si>
-  <si>
     <t>Уголок</t>
   </si>
   <si>
@@ -2144,6 +1888,306 @@
   </si>
   <si>
     <t>Лист 110x1600x6200</t>
+  </si>
+  <si>
+    <t>C345</t>
+  </si>
+  <si>
+    <t>Лист г/к ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 1,5х1250х2500 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 2х1250х2500 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 3х1250х2500 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 3х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 4х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 5х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 6х2000х6000 ст3сп/пс1-5 ГОСТ 19903-74 (под заказ)</t>
+  </si>
+  <si>
+    <t>Лист г/к 6х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 8х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 8х2000х6000 ст3сп5-св, ПН ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 10х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 12х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 12х2000х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 14х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 14х2000х8000 ст3сп/пс1-5 ГОСТ 19903-74 (под заказ)</t>
+  </si>
+  <si>
+    <t>Лист г/к 16х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 20х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 20х2000х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 30х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 40х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 40х2000х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 50х1500х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист г/к 60х2000х6000 ст3сп/пс1-5 ГОСТ 19903-74</t>
+  </si>
+  <si>
+    <t>Лист 1,5х1250х2500</t>
+  </si>
+  <si>
+    <t>Лист 2х1250х2500</t>
+  </si>
+  <si>
+    <t>Лист 3х1250х2500</t>
+  </si>
+  <si>
+    <t>Лист 3х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 4х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 5х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 6х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 8х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 10х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 12х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 12х2000х6000</t>
+  </si>
+  <si>
+    <t>Лист 14х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 16х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 20х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 20х2000х6000</t>
+  </si>
+  <si>
+    <t>Лист 30х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 40х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 40х2000х6000</t>
+  </si>
+  <si>
+    <t>Лист 50х1500х6000</t>
+  </si>
+  <si>
+    <t>Лист 60х2000х6000</t>
+  </si>
+  <si>
+    <t>Лист 8х2000х6000</t>
+  </si>
+  <si>
+    <t>Лист 6х2000х6000</t>
+  </si>
+  <si>
+    <t>Лист 14х2000х8000</t>
+  </si>
+  <si>
+    <t>C245</t>
+  </si>
+  <si>
+    <t>Швеллер   6,5У</t>
+  </si>
+  <si>
+    <t>Швеллер   10</t>
+  </si>
+  <si>
+    <t>Швеллер   12</t>
+  </si>
+  <si>
+    <t>Швеллер   14</t>
+  </si>
+  <si>
+    <t>Швеллер   16</t>
+  </si>
+  <si>
+    <t>Швеллер   22</t>
+  </si>
+  <si>
+    <t>Швеллер   20</t>
+  </si>
+  <si>
+    <t>Швеллер   24</t>
+  </si>
+  <si>
+    <t>Швеллер   27</t>
+  </si>
+  <si>
+    <t>Швеллер   30</t>
+  </si>
+  <si>
+    <t>Швеллер  50х40х3</t>
+  </si>
+  <si>
+    <t>Швеллер  60х32х4</t>
+  </si>
+  <si>
+    <t>Швеллер  80х32х4</t>
+  </si>
+  <si>
+    <t>Швеллер  80х40х3</t>
+  </si>
+  <si>
+    <t>Швеллер  80х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  100х50х3</t>
+  </si>
+  <si>
+    <t>Швеллер  100х50х4</t>
+  </si>
+  <si>
+    <t>Швеллер  100х50х5</t>
+  </si>
+  <si>
+    <t>Швеллер  100х60х3</t>
+  </si>
+  <si>
+    <t>Швеллер  120х50х3</t>
+  </si>
+  <si>
+    <t>Швеллер  120х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  120х80х4</t>
+  </si>
+  <si>
+    <t>Швеллер  140х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  140х60х5</t>
+  </si>
+  <si>
+    <t>Швеллер  160х40х3</t>
+  </si>
+  <si>
+    <t>Швеллер  160х40х4</t>
+  </si>
+  <si>
+    <t>Швеллер  160х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  160х60х5</t>
+  </si>
+  <si>
+    <t>Швеллер  160х80х4</t>
+  </si>
+  <si>
+    <t>Швеллер  160х80х5</t>
+  </si>
+  <si>
+    <t>Швеллер  160х100х6</t>
+  </si>
+  <si>
+    <t>Швеллер  180х50х4</t>
+  </si>
+  <si>
+    <t>Швеллер  180х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  180х60х5</t>
+  </si>
+  <si>
+    <t>Швеллер  180х70х6</t>
+  </si>
+  <si>
+    <t>Швеллер  180х80х5</t>
+  </si>
+  <si>
+    <t>Швеллер  200х50х4</t>
+  </si>
+  <si>
+    <t>Швеллер  200х50х5</t>
+  </si>
+  <si>
+    <t>Швеллер  200х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  200х60х5</t>
+  </si>
+  <si>
+    <t>Швеллер  200х80х4</t>
+  </si>
+  <si>
+    <t>Швеллер  200х80х5</t>
+  </si>
+  <si>
+    <t>Швеллер  200х80х6</t>
+  </si>
+  <si>
+    <t>Швеллер  200х100х6</t>
+  </si>
+  <si>
+    <t>Швеллер  250х60х4</t>
+  </si>
+  <si>
+    <t>Швеллер  250х80х4</t>
+  </si>
+  <si>
+    <t>Швеллер  250х80х6</t>
+  </si>
+  <si>
+    <t>Швеллер  250х100х4</t>
+  </si>
+  <si>
+    <t>Швеллер  250х100х5</t>
+  </si>
+  <si>
+    <t>Швеллер  250х100х6</t>
+  </si>
+  <si>
+    <t>Швеллер  250х125х6</t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2200,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,6 +2296,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2340,7 +2394,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2383,12 +2437,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2419,25 +2469,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2774,23 +2825,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>42830</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="26">
+        <v>231</v>
+      </c>
+      <c r="D1" s="24">
         <v>42830</v>
       </c>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="E2"/>
     </row>
@@ -3929,14 +3980,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>42830</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="26">
+        <v>231</v>
+      </c>
+      <c r="E1" s="24">
         <v>42830</v>
       </c>
     </row>
@@ -3944,18 +3995,18 @@
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3972,11 +4023,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>588</v>
+      <c r="A5" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>503</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -3992,11 +4043,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>589</v>
+      <c r="A6" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>504</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -4012,11 +4063,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>590</v>
+      <c r="A7" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>505</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -4032,11 +4083,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>591</v>
+      <c r="A8" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>506</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>11</v>
@@ -4052,11 +4103,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>592</v>
+      <c r="A9" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>507</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -4072,11 +4123,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>593</v>
+      <c r="A10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>508</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
@@ -4092,11 +4143,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>594</v>
+      <c r="A11" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>509</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
@@ -4112,11 +4163,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>595</v>
+      <c r="A12" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>510</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
@@ -4132,11 +4183,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>596</v>
+      <c r="A13" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>511</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -4152,11 +4203,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>596</v>
+      <c r="A14" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>511</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -4172,11 +4223,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>597</v>
+      <c r="A15" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>512</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>23</v>
@@ -4192,11 +4243,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>598</v>
+      <c r="A16" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>513</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>24</v>
@@ -4212,11 +4263,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>599</v>
+      <c r="A17" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>514</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>26</v>
@@ -4232,11 +4283,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>600</v>
+      <c r="A18" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>515</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>28</v>
@@ -4252,11 +4303,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>601</v>
+      <c r="A19" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>30</v>
@@ -4272,11 +4323,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>602</v>
+      <c r="A20" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>517</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>32</v>
@@ -4292,11 +4343,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>603</v>
+      <c r="A21" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>518</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>34</v>
@@ -4312,11 +4363,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>604</v>
+      <c r="A22" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>519</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>36</v>
@@ -4332,11 +4383,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>605</v>
+      <c r="A23" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>520</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>38</v>
@@ -4352,11 +4403,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>606</v>
+      <c r="A24" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>521</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>39</v>
@@ -4372,11 +4423,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>607</v>
+      <c r="A25" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>522</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>41</v>
@@ -4392,11 +4443,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>608</v>
+      <c r="A26" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>523</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>43</v>
@@ -4412,11 +4463,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>609</v>
+      <c r="A27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>524</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>45</v>
@@ -4432,11 +4483,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>610</v>
+      <c r="A28" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>525</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>47</v>
@@ -4452,11 +4503,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>611</v>
+      <c r="A29" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>526</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>49</v>
@@ -4472,11 +4523,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>612</v>
+      <c r="A30" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>527</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>51</v>
@@ -4492,11 +4543,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>612</v>
+      <c r="A31" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>527</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>51</v>
@@ -4512,11 +4563,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>613</v>
+      <c r="A32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>528</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>54</v>
@@ -4532,11 +4583,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>613</v>
+      <c r="A33" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>528</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>54</v>
@@ -4552,11 +4603,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>613</v>
+      <c r="A34" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>528</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>54</v>
@@ -4572,11 +4623,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>614</v>
+      <c r="A35" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>529</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>57</v>
@@ -4592,11 +4643,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>614</v>
+      <c r="A36" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>529</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>57</v>
@@ -4612,11 +4663,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>615</v>
+      <c r="A37" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>530</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>58</v>
@@ -4632,11 +4683,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>615</v>
+      <c r="A38" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>530</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>58</v>
@@ -4652,11 +4703,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>616</v>
+      <c r="A39" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>531</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>61</v>
@@ -4672,11 +4723,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>616</v>
+      <c r="A40" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>531</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>61</v>
@@ -4692,11 +4743,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>617</v>
+      <c r="A41" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>532</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>63</v>
@@ -4712,11 +4763,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>617</v>
+      <c r="A42" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>532</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>63</v>
@@ -4732,11 +4783,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>618</v>
+      <c r="A43" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>533</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>64</v>
@@ -4752,11 +4803,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>618</v>
+      <c r="A44" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>533</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>64</v>
@@ -4772,11 +4823,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>619</v>
+      <c r="A45" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>534</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>65</v>
@@ -4792,11 +4843,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>619</v>
+      <c r="A46" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>534</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>65</v>
@@ -4812,11 +4863,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>620</v>
+      <c r="A47" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>535</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>66</v>
@@ -4832,11 +4883,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>621</v>
+      <c r="A48" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>536</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>68</v>
@@ -4852,11 +4903,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>622</v>
+      <c r="A49" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>537</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>69</v>
@@ -4872,11 +4923,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>623</v>
+      <c r="A50" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>538</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>71</v>
@@ -4892,11 +4943,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>624</v>
+      <c r="A51" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>539</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>73</v>
@@ -4912,11 +4963,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>625</v>
+      <c r="A52" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>540</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>75</v>
@@ -4932,11 +4983,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>626</v>
+      <c r="A53" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>541</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>76</v>
@@ -4952,11 +5003,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>626</v>
+      <c r="A54" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>541</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>76</v>
@@ -4972,11 +5023,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>626</v>
+      <c r="A55" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>541</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>76</v>
@@ -4992,11 +5043,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>627</v>
+      <c r="A56" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>542</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>77</v>
@@ -5012,11 +5063,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>627</v>
+      <c r="A57" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>542</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>77</v>
@@ -5032,11 +5083,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>628</v>
+      <c r="A58" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>543</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>78</v>
@@ -5052,11 +5103,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>629</v>
+      <c r="A59" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>544</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>80</v>
@@ -5072,11 +5123,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>630</v>
+      <c r="A60" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>545</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>81</v>
@@ -5092,11 +5143,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>630</v>
+      <c r="A61" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>545</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>81</v>
@@ -5112,11 +5163,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>631</v>
+      <c r="A62" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>546</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>82</v>
@@ -5132,11 +5183,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>631</v>
+      <c r="A63" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>546</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>82</v>
@@ -5152,11 +5203,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>632</v>
+      <c r="A64" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>547</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>83</v>
@@ -5172,11 +5223,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>633</v>
+      <c r="A65" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>548</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>84</v>
@@ -5192,11 +5243,11 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>633</v>
+      <c r="A66" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>548</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>84</v>
@@ -5212,11 +5263,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>634</v>
+      <c r="A67" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>549</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>85</v>
@@ -5232,11 +5283,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>635</v>
+      <c r="A68" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>550</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>86</v>
@@ -5252,11 +5303,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>635</v>
+      <c r="A69" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>550</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>86</v>
@@ -5272,11 +5323,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>636</v>
+      <c r="A70" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>87</v>
@@ -5292,11 +5343,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>636</v>
+      <c r="A71" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>87</v>
@@ -5312,11 +5363,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>637</v>
+      <c r="A72" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>552</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>88</v>
@@ -5332,11 +5383,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>638</v>
+      <c r="A73" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>553</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>89</v>
@@ -5352,11 +5403,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>638</v>
+      <c r="A74" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>553</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>89</v>
@@ -5372,11 +5423,11 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>639</v>
+      <c r="A75" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>554</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>90</v>
@@ -5392,11 +5443,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>639</v>
+      <c r="A76" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>554</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>90</v>
@@ -5412,11 +5463,11 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>640</v>
+      <c r="A77" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>555</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>91</v>
@@ -5432,11 +5483,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>641</v>
+      <c r="A78" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>556</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>92</v>
@@ -5452,11 +5503,11 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>641</v>
+      <c r="A79" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>556</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>92</v>
@@ -5472,11 +5523,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>642</v>
+      <c r="A80" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>93</v>
@@ -5492,11 +5543,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>643</v>
+      <c r="A81" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>558</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>94</v>
@@ -5512,11 +5563,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>644</v>
+      <c r="A82" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>559</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>96</v>
@@ -5532,11 +5583,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>645</v>
+      <c r="A83" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>560</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>97</v>
@@ -5552,11 +5603,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>645</v>
+      <c r="A84" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>560</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>97</v>
@@ -5572,11 +5623,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>646</v>
+      <c r="A85" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>561</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>98</v>
@@ -5592,11 +5643,11 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>646</v>
+      <c r="A86" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>561</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>98</v>
@@ -5612,11 +5663,11 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>647</v>
+      <c r="A87" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>562</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>99</v>
@@ -5630,11 +5681,11 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>647</v>
+      <c r="A88" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>562</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>99</v>
@@ -5650,11 +5701,11 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>648</v>
+      <c r="A89" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>100</v>
@@ -5670,11 +5721,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>649</v>
+      <c r="A90" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>564</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>103</v>
@@ -5688,11 +5739,11 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>649</v>
+      <c r="A91" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>564</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>103</v>
@@ -5708,11 +5759,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>650</v>
+      <c r="A92" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>565</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>105</v>
@@ -5728,11 +5779,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>651</v>
+      <c r="A93" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>566</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>107</v>
@@ -5748,11 +5799,11 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>652</v>
+      <c r="A94" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>567</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>109</v>
@@ -5768,11 +5819,11 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>653</v>
+      <c r="A95" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>568</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>110</v>
@@ -5788,11 +5839,11 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>654</v>
+      <c r="A96" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>569</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>111</v>
@@ -5808,11 +5859,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>654</v>
+      <c r="A97" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>569</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>111</v>
@@ -5828,11 +5879,11 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>655</v>
+      <c r="A98" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>570</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>112</v>
@@ -5855,387 +5906,390 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>42888</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="26">
+        <v>231</v>
+      </c>
+      <c r="D1" s="24">
         <v>42888</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>670</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="D5" s="33"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>657</v>
+      <c r="A6" s="15"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="34" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" t="s">
-        <v>671</v>
+      <c r="A7" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>586</v>
       </c>
       <c r="C7" t="s">
-        <v>658</v>
+        <v>573</v>
       </c>
       <c r="D7" s="14">
         <v>54800</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" t="s">
-        <v>672</v>
+      <c r="A8" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>587</v>
       </c>
       <c r="C8" t="s">
-        <v>659</v>
+        <v>574</v>
       </c>
       <c r="D8" s="14">
         <v>43400</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>673</v>
+      <c r="A9" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>588</v>
       </c>
       <c r="C9" t="s">
-        <v>660</v>
+        <v>575</v>
       </c>
       <c r="D9" s="14">
         <v>42100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" t="s">
-        <v>674</v>
+      <c r="A10" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>589</v>
       </c>
       <c r="C10" t="s">
-        <v>661</v>
+        <v>576</v>
       </c>
       <c r="D10" s="14">
         <v>42100</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" t="s">
-        <v>675</v>
+      <c r="A11" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>590</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>577</v>
       </c>
       <c r="D11" s="14">
         <v>40500</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" t="s">
-        <v>676</v>
+      <c r="A12" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>591</v>
       </c>
       <c r="C12" t="s">
-        <v>663</v>
+        <v>578</v>
       </c>
       <c r="D12" s="14">
         <v>42500</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" t="s">
-        <v>677</v>
+      <c r="A13" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>664</v>
+        <v>579</v>
       </c>
       <c r="D13" s="14">
         <v>42500</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" t="s">
-        <v>678</v>
+      <c r="A14" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>580</v>
       </c>
       <c r="D14" s="14">
         <v>42500</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>679</v>
+      <c r="A15" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>594</v>
       </c>
       <c r="C15" t="s">
-        <v>666</v>
+        <v>581</v>
       </c>
       <c r="D15" s="14">
         <v>41900</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>680</v>
+      <c r="A16" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>595</v>
       </c>
       <c r="C16" t="s">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="D16" s="14">
         <v>41800</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>681</v>
+      <c r="A17" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>596</v>
       </c>
       <c r="C17" t="s">
-        <v>668</v>
+        <v>583</v>
       </c>
       <c r="D17" s="14">
         <v>41500</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" t="s">
-        <v>682</v>
+      <c r="A18" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>597</v>
       </c>
       <c r="C18" t="s">
-        <v>669</v>
+        <v>584</v>
       </c>
       <c r="D18" s="14">
         <v>39500</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>694</v>
+      <c r="A19" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>609</v>
       </c>
       <c r="C19" t="s">
-        <v>683</v>
+        <v>598</v>
       </c>
       <c r="D19" s="14">
         <v>43800</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" t="s">
-        <v>695</v>
+      <c r="A20" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>610</v>
       </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>599</v>
       </c>
       <c r="D20" s="14">
         <v>41900</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" t="s">
-        <v>696</v>
+      <c r="A21" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>611</v>
       </c>
       <c r="C21" t="s">
-        <v>685</v>
+        <v>600</v>
       </c>
       <c r="D21" s="14">
         <v>45800</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" t="s">
-        <v>697</v>
+      <c r="A22" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>612</v>
       </c>
       <c r="C22" t="s">
-        <v>686</v>
+        <v>601</v>
       </c>
       <c r="D22" s="14">
         <v>45800</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" t="s">
-        <v>698</v>
+      <c r="A23" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>613</v>
       </c>
       <c r="C23" t="s">
-        <v>687</v>
+        <v>602</v>
       </c>
       <c r="D23" s="14">
         <v>47100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" t="s">
-        <v>699</v>
+      <c r="A24" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>614</v>
       </c>
       <c r="C24" t="s">
-        <v>688</v>
+        <v>603</v>
       </c>
       <c r="D24" s="14">
         <v>39500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>700</v>
+      <c r="A25" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>615</v>
       </c>
       <c r="C25" t="s">
-        <v>689</v>
+        <v>604</v>
       </c>
       <c r="D25" s="14">
         <v>46500</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>701</v>
+      <c r="A26" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>616</v>
       </c>
       <c r="C26" t="s">
-        <v>690</v>
+        <v>605</v>
       </c>
       <c r="D26" s="14">
         <v>46500</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" t="s">
-        <v>702</v>
+      <c r="A27" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>617</v>
       </c>
       <c r="C27" t="s">
-        <v>691</v>
+        <v>606</v>
       </c>
       <c r="D27" s="14">
         <v>48500</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>703</v>
+      <c r="A28" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>618</v>
       </c>
       <c r="C28" t="s">
-        <v>692</v>
+        <v>607</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" t="s">
-        <v>704</v>
+      <c r="A29" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>619</v>
       </c>
       <c r="C29" t="s">
-        <v>693</v>
+        <v>608</v>
       </c>
       <c r="D29" s="14">
         <v>0</v>
@@ -6243,75 +6297,336 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30"/>
-      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="34" t="s">
+        <v>621</v>
+      </c>
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52"/>
+      <c r="A32" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="C32" t="s">
+        <v>622</v>
+      </c>
+      <c r="D32" s="14">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="C33" t="s">
+        <v>623</v>
+      </c>
+      <c r="D33" s="14">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="C34" t="s">
+        <v>624</v>
+      </c>
+      <c r="D34" s="14">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="C35" t="s">
+        <v>625</v>
+      </c>
+      <c r="D35" s="14">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="C36" t="s">
+        <v>626</v>
+      </c>
+      <c r="D36" s="14">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="C37" t="s">
+        <v>627</v>
+      </c>
+      <c r="D37" s="14">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>628</v>
+      </c>
+      <c r="D38" s="14">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="C39" t="s">
+        <v>629</v>
+      </c>
+      <c r="D39" s="14">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="C40" t="s">
+        <v>630</v>
+      </c>
+      <c r="D40" s="14">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="C41" t="s">
+        <v>631</v>
+      </c>
+      <c r="D41" s="14">
+        <v>36700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="C42" t="s">
+        <v>632</v>
+      </c>
+      <c r="D42" s="14">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="C43" t="s">
+        <v>633</v>
+      </c>
+      <c r="D43" s="14">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="C44" t="s">
+        <v>634</v>
+      </c>
+      <c r="D44" s="14">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="C45" t="s">
+        <v>635</v>
+      </c>
+      <c r="D45" s="14">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="C46" t="s">
+        <v>636</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="C47" t="s">
+        <v>637</v>
+      </c>
+      <c r="D47" s="14">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="C48" t="s">
+        <v>638</v>
+      </c>
+      <c r="D48" s="14">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="C49" t="s">
+        <v>639</v>
+      </c>
+      <c r="D49" s="14">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="C50" t="s">
+        <v>640</v>
+      </c>
+      <c r="D50" s="14">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="C51" t="s">
+        <v>641</v>
+      </c>
+      <c r="D51" s="14">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="C52" t="s">
+        <v>642</v>
+      </c>
+      <c r="D52" s="14">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="C53" t="s">
+        <v>643</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="C54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6324,595 +6639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="10"/>
-    <col min="3" max="3" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>42830</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="15">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
-        <f>B6</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="14">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="15">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10">
-        <f t="shared" ref="C7:C12" si="0">B7</f>
-        <v>12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="15">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D9" s="14">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="15">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D10" s="14">
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="15">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D11" s="14">
-        <v>40800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>20Б1</v>
-      </c>
-      <c r="D12" s="14">
-        <v>57500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="14">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="16">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="14">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="16">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="15" t="str">
-        <f>C17</f>
-        <v>24М</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="14">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="14">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="16">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="14">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="16">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="15" t="str">
-        <f>C22</f>
-        <v>25Ш1</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="14">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="14">
-        <v>59500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="16">
-        <v>59500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="14">
-        <v>59800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="16">
-        <v>59800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="14">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="16">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="14">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="16">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="14">
-        <v>58600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D32" s="16">
-        <v>58600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="14">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="16">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="15" t="str">
-        <f>C35</f>
-        <v>40Б1</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="14">
-        <v>47800</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="15" t="str">
-        <f t="shared" ref="B36:B39" si="1">C36</f>
-        <v>40Ш1</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="14">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>40К1</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="14">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>45Б1</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="14">
-        <v>47800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>45Ш1</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="14">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="14">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" s="14">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B30" sqref="B30:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,14 +6654,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>42878</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="27">
+        <v>231</v>
+      </c>
+      <c r="D1" s="25">
         <v>42878</v>
       </c>
     </row>
@@ -6939,1089 +6669,1085 @@
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>523</v>
+        <v>232</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="27">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="27">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="27">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="27">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="27">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="27">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="27">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" s="27">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="27">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="27">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="27">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="27">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="27">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="27">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" s="27">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="27">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="27">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="27">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" s="27">
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="27">
+        <v>57800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="D27" s="27">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="D31" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D33" s="27">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D34" s="27">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="27">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="D36" s="27">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D37" s="27">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="D39" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="27">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D41" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D42" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D45" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D46" s="27">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="27">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="32" t="s">
+      <c r="D48" s="27">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="D49" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="D7" s="29">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="D50" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="D8" s="29">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="D51" s="27">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="29">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="D52" s="27">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="D10" s="29">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="D53" s="27">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D54" s="27">
+        <v>37300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="27">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="D56" s="27">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D57" s="27">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="D58" s="27">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" s="27">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D60" s="27">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D61" s="27">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="D62" s="27">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="27">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="D64" s="27">
         <v>42500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="29">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" s="29">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" s="29">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D15" s="29">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="29">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="D17" s="29">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D18" s="29">
-        <v>49200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" s="29">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D66" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D67" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D68" s="27">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D69" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="D70" s="27">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="D72" s="36"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="D73" s="27">
+        <v>58450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D74" s="27">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D75" s="27">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" s="27">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D77" s="27">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="D78" s="27">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D79" s="27">
         <v>58500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="D20" s="29">
-        <v>53200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" s="29">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D80" s="27">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D81" s="27">
         <v>56800</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="D22" s="29">
-        <v>56800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D23" s="29">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" s="29">
-        <v>57200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="D25" s="29">
-        <v>55600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="D26" s="29">
-        <v>57800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D27" s="29">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D30" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="D31" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="D32" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="D33" s="29">
-        <v>42300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="D34" s="29">
-        <v>41400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="D35" s="29">
-        <v>41400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="D36" s="29">
-        <v>41400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="D37" s="29">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="D38" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="C39" s="25" t="s">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="C82" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="D39" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="D40" s="29">
-        <v>41400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="D41" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="D42" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="D43" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="D44" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D45" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D46" s="29">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D47" s="29">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="D48" s="29">
-        <v>46800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="D49" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D50" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D51" s="29">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="D52" s="29">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D53" s="29">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="D54" s="29">
-        <v>37300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D55" s="29">
-        <v>36600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="D56" s="29">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="D57" s="29">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="D58" s="29">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D59" s="29">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="D60" s="29">
-        <v>37100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="D61" s="29">
-        <v>37100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="D62" s="29">
-        <v>37100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D63" s="29">
-        <v>36600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>579</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D64" s="29">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="D65" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="D66" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D67" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="D68" s="29">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="D69" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="D70" s="29">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="D71" s="33"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="D72" s="32"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="D73" s="29">
-        <v>58450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D74" s="29">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D75" s="29">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="D76" s="29">
-        <v>46800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="D77" s="29">
-        <v>48400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="D78" s="29">
-        <v>55800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D79" s="29">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="D80" s="29">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="D81" s="29">
-        <v>56800</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="D82" s="29">
+      <c r="D82" s="27">
         <v>56800</v>
       </c>
     </row>
@@ -8039,11 +7765,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -8056,14 +7782,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>42830</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="26">
+        <v>231</v>
+      </c>
+      <c r="D1" s="24">
         <v>42830</v>
       </c>
     </row>
@@ -8071,1378 +7797,1378 @@
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="18">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="18">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="18">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="18">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="18">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="18">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="18">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="18">
+        <v>47800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="18">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="18">
+        <v>59100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="18">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="18">
+        <v>49800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="18">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="18">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="18">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="18">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="18">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="18">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="18">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="18">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="18">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="18">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="18">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="18">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="18">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="18">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="18">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="18">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="18">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="18">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="18">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="18">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="18">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="18">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="18">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="18">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="18">
+        <v>52900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="D48" s="18">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" s="18">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="18">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="18">
+        <v>47800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="20">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="C52" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" s="18">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="20">
-        <v>46800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C53" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="18">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="20">
-        <v>44200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C54" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="20">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="C55" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="20">
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="C56" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="20">
-        <v>40800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="C57" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="20">
-        <v>41800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="C58" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="18">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C59" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="18">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="18">
         <v>47800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="24" t="s">
+    <row r="61" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D61" s="18">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="18">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" s="18">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" s="18">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="18">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="18">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="18">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="18">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="18">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="18">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="18">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="18">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="18">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="18">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="18">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D81" s="37"/>
+    </row>
+    <row r="82" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="18">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="18">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="18">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="18">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="18">
+        <v>62600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="18">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="18">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" s="18">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" s="18">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D91" s="18">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="18">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="18">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D94" s="18">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" s="18">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" s="18">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="18">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" s="18">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="20">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="C99" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D99" s="18">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="20">
-        <v>59100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="20">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="C100" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D100" s="18">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="20">
-        <v>49800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="C101" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="18">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="20">
-        <v>45800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D19" s="20">
-        <v>46100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="20">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="20">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="20">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="20">
-        <v>57500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" s="20">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="20">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="20">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="20">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="20">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="20">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="20">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="20">
-        <v>61500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D35" s="20">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D36" s="20">
-        <v>59500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="D37" s="20">
-        <v>59500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D38" s="20">
-        <v>59800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="D39" s="20">
-        <v>59800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D42" s="20">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" s="20">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D44" s="20">
-        <v>58600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" s="20">
-        <v>58600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="20">
-        <v>57500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D47" s="20">
-        <v>52900</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" s="20">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D49" s="20">
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D50" s="20">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D51" s="20">
-        <v>47800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="D52" s="20">
-        <v>51300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D53" s="20">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D58" s="20">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C59" s="19" t="s">
+      <c r="C102" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D59" s="20">
-        <v>51700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="D60" s="20">
-        <v>47800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="D61" s="20">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="20">
-        <v>50500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D63" s="20">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D64" s="20">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" s="20">
-        <v>51100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D67" s="20">
-        <v>51100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D68" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="D69" s="20">
-        <v>49600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D70" s="20">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D71" s="20">
-        <v>45800</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D72" s="20">
-        <v>49200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D73" s="20">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D74" s="20">
-        <v>45600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="20">
-        <v>48400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="D76" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D77" s="20">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="D78" s="20">
-        <v>51800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D79" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D80" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D81" s="34"/>
-    </row>
-    <row r="82" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D82" s="20">
-        <v>62500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D83" s="20">
-        <v>62500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="D84" s="20">
-        <v>63800</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85" s="20">
-        <v>62800</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="D86" s="20">
-        <v>62600</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D87" s="20">
-        <v>55400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D88" s="20">
-        <v>62200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="D89" s="20">
-        <v>62200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="20">
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="20">
-        <v>62500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="D92" s="20">
-        <v>62500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D93" s="20">
-        <v>65200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D94" s="20">
-        <v>65200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D95" s="20">
-        <v>63800</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D96" s="20">
-        <v>62800</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D97" s="20">
-        <v>54500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D98" s="20">
-        <v>54200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="D99" s="20">
-        <v>53800</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D100" s="20">
-        <v>54500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D101" s="20">
-        <v>54800</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D102" s="20">
+      <c r="D102" s="18">
         <v>54800</v>
       </c>
     </row>
